--- a/MultiObjectiveDispatch/truck1.xlsx
+++ b/MultiObjectiveDispatch/truck1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pc\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\pc\PycharmProjects\jc-dispatch\MultiObjectiveDispatch\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A051DDB7-7951-4E07-B608-47AB399A6534}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BE057BD-82AA-43D0-8C22-F02240273679}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="600" windowWidth="28800" windowHeight="13920" xr2:uid="{7D06A7F4-9B5E-4ECD-8D9F-8D36F22EA03E}"/>
+    <workbookView xWindow="0" yWindow="1200" windowWidth="28800" windowHeight="13920" xr2:uid="{7D06A7F4-9B5E-4ECD-8D9F-8D36F22EA03E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="32">
   <si>
     <t>car_mark</t>
   </si>
@@ -135,12 +135,16 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>窄带</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>鲁Q998GJ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>白卷</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>临沂市</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>鲁QM0239</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -207,7 +211,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -215,6 +219,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -531,10 +538,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E98B5470-3EA8-42DA-877F-4B1DBE4CADB3}">
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -718,20 +725,22 @@
         <v>33.700000000000003</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D11" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F11" s="1" t="s">
+      <c r="F11" s="3" t="s">
         <v>29</v>
       </c>
       <c r="G11" s="1">
-        <v>28.9</v>
-      </c>
-    </row>
+        <v>33.200000000000003</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.2"/>
+    <row r="13" spans="1:8" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.2"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
